--- a/Commands.xlsx
+++ b/Commands.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jweisenfeld\Documents\GitHub\19-20-T3-Web-Design-Weisenfeld\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1600089A-5ED2-4DA6-8F2B-FCB976BAF44C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA51C031-BF1E-4894-AEC8-16AB0E1AA3DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6825" activeTab="2" xr2:uid="{5D120562-0968-470E-AB16-4F6C4B9FC5EC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6825" activeTab="3" xr2:uid="{5D120562-0968-470E-AB16-4F6C4B9FC5EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="project01" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="82">
   <si>
     <t>phs-alexis462</t>
   </si>
@@ -254,6 +255,30 @@
   </si>
   <si>
     <t>Galvez, Mireyah Issabella\</t>
+  </si>
+  <si>
+    <t>jweisenfeldtest</t>
+  </si>
+  <si>
+    <t>adelaida733</t>
+  </si>
+  <si>
+    <t>jweisenfeld</t>
+  </si>
+  <si>
+    <t>johanna521</t>
+  </si>
+  <si>
+    <t>project01.html</t>
+  </si>
+  <si>
+    <t>phs-adelaida733</t>
+  </si>
+  <si>
+    <t>phs-miguel340</t>
+  </si>
+  <si>
+    <t>project01</t>
   </si>
 </sst>
 </file>
@@ -308,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -316,6 +341,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1077,145 +1103,193 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F46820AA-C90C-4E87-ADC2-69F24B43FCFA}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>_xlfn.CONCAT("mkdir ",C1)</f>
-        <v>mkdir phs-alexis462</v>
+        <v>mkdir phs-adelaida733</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="C1" t="str">
         <f>_xlfn.CONCAT("phs-",B1)</f>
-        <v>phs-alexis462</v>
+        <v>phs-adelaida733</v>
       </c>
       <c r="D1" t="str">
         <f>_xlfn.CONCAT("copy c:\users\jweisenfeld\documents\github\19-20-T3-Web-Design-Weisenfeld\johanna521\HELLO.HTML c:\users\jweisenfeld\documents\github\19-20-T3-Web-Design-Weisenfeld\",C1,"\HELLO.HTML")</f>
+        <v>copy c:\users\jweisenfeld\documents\github\19-20-T3-Web-Design-Weisenfeld\johanna521\HELLO.HTML c:\users\jweisenfeld\documents\github\19-20-T3-Web-Design-Weisenfeld\phs-adelaida733\HELLO.HTML</v>
+      </c>
+      <c r="E1" t="str">
+        <f>_xlfn.CONCAT("&lt;a url=""https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/",$C1,"/hello.html""&gt;",$C1,"/hello.html&lt;/a&gt;&lt;br /&gt;")</f>
+        <v>&lt;a url="https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/phs-adelaida733/hello.html"&gt;phs-adelaida733/hello.html&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+      <c r="F1" t="str">
+        <f>_xlfn.CONCAT("https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/",$C1,"/hello.html")</f>
+        <v>https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/phs-adelaida733/hello.html</v>
+      </c>
+      <c r="G1" t="str">
+        <f>_xlfn.CONCAT("https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/",$C1,"/HELLO.HTML")</f>
+        <v>https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/phs-adelaida733/HELLO.HTML</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>_xlfn.CONCAT("mkdir ",C2)</f>
+        <v>mkdir phs-alexis462</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="str">
+        <f>_xlfn.CONCAT("phs-",B2)</f>
+        <v>phs-alexis462</v>
+      </c>
+      <c r="D2" t="str">
+        <f>_xlfn.CONCAT("copy c:\users\jweisenfeld\documents\github\19-20-T3-Web-Design-Weisenfeld\johanna521\HELLO.HTML c:\users\jweisenfeld\documents\github\19-20-T3-Web-Design-Weisenfeld\",C2,"\HELLO.HTML")</f>
         <v>copy c:\users\jweisenfeld\documents\github\19-20-T3-Web-Design-Weisenfeld\johanna521\HELLO.HTML c:\users\jweisenfeld\documents\github\19-20-T3-Web-Design-Weisenfeld\phs-alexis462\HELLO.HTML</v>
       </c>
-      <c r="E1" t="str">
-        <f>_xlfn.CONCAT("&lt;a url=""https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/",C1,"/hello.html""&gt;",C1,"/hello.html&lt;/a&gt;&lt;br /&gt;")</f>
+      <c r="E2" t="str">
+        <f>_xlfn.CONCAT("&lt;a url=""https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/",$C2,"/hello.html""&gt;",$C2,"/hello.html&lt;/a&gt;&lt;br /&gt;")</f>
         <v>&lt;a url="https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/phs-alexis462/hello.html"&gt;phs-alexis462/hello.html&lt;/a&gt;&lt;br /&gt;</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
-        <f t="shared" ref="A2:A17" si="0">_xlfn.CONCAT("mkdir ",C2)</f>
+      <c r="F2" t="str">
+        <f>_xlfn.CONCAT("https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/",$C2,"/hello.html")</f>
+        <v>https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/phs-alexis462/hello.html</v>
+      </c>
+      <c r="G2" t="str">
+        <f>_xlfn.CONCAT("https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/",$C2,"/HELLO.HTML")</f>
+        <v>https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/phs-alexis462/HELLO.HTML</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A17" si="0">_xlfn.CONCAT("mkdir ",C3)</f>
         <v>mkdir phs-angel490</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C2" t="str">
-        <f t="shared" ref="C2:C17" si="1">_xlfn.CONCAT("phs-",B2)</f>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C16" si="1">_xlfn.CONCAT("phs-",B3)</f>
         <v>phs-angel490</v>
       </c>
-      <c r="D2" t="str">
-        <f t="shared" ref="D2:D17" si="2">_xlfn.CONCAT("copy c:\users\jweisenfeld\documents\github\19-20-T3-Web-Design-Weisenfeld\johanna521\HELLO.HTML c:\users\jweisenfeld\documents\github\19-20-T3-Web-Design-Weisenfeld\",C2,"\HELLO.HTML")</f>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D17" si="2">_xlfn.CONCAT("copy c:\users\jweisenfeld\documents\github\19-20-T3-Web-Design-Weisenfeld\johanna521\HELLO.HTML c:\users\jweisenfeld\documents\github\19-20-T3-Web-Design-Weisenfeld\",C3,"\HELLO.HTML")</f>
         <v>copy c:\users\jweisenfeld\documents\github\19-20-T3-Web-Design-Weisenfeld\johanna521\HELLO.HTML c:\users\jweisenfeld\documents\github\19-20-T3-Web-Design-Weisenfeld\phs-angel490\HELLO.HTML</v>
       </c>
-      <c r="E2" t="str">
-        <f t="shared" ref="E2:E17" si="3">_xlfn.CONCAT("&lt;a url=""https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/",C2,"/hello.html""&gt;",C2,"/hello.html&lt;/a&gt;&lt;br /&gt;")</f>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E19" si="3">_xlfn.CONCAT("&lt;a url=""https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/",$C3,"/hello.html""&gt;",$C3,"/hello.html&lt;/a&gt;&lt;br /&gt;")</f>
         <v>&lt;a url="https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/phs-angel490/hello.html"&gt;phs-angel490/hello.html&lt;/a&gt;&lt;br /&gt;</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F19" si="4">_xlfn.CONCAT("https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/",$C3,"/hello.html")</f>
+        <v>https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/phs-angel490/hello.html</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G19" si="5">_xlfn.CONCAT("https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/",$C3,"/HELLO.HTML")</f>
+        <v>https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/phs-angel490/HELLO.HTML</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>mkdir phs-anthony019</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C4" t="str">
         <f t="shared" si="1"/>
         <v>phs-anthony019</v>
       </c>
-      <c r="D3" t="str">
+      <c r="D4" t="str">
         <f t="shared" si="2"/>
         <v>copy c:\users\jweisenfeld\documents\github\19-20-T3-Web-Design-Weisenfeld\johanna521\HELLO.HTML c:\users\jweisenfeld\documents\github\19-20-T3-Web-Design-Weisenfeld\phs-anthony019\HELLO.HTML</v>
       </c>
-      <c r="E3" t="str">
+      <c r="E4" t="str">
         <f t="shared" si="3"/>
         <v>&lt;a url="https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/phs-anthony019/hello.html"&gt;phs-anthony019/hello.html&lt;/a&gt;&lt;br /&gt;</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
+      <c r="F4" t="str">
+        <f t="shared" si="4"/>
+        <v>https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/phs-anthony019/hello.html</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="5"/>
+        <v>https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/phs-anthony019/HELLO.HTML</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>mkdir phs-cecilia124</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C5" t="str">
         <f t="shared" si="1"/>
         <v>phs-cecilia124</v>
       </c>
-      <c r="D4" t="str">
+      <c r="D5" t="str">
         <f t="shared" si="2"/>
         <v>copy c:\users\jweisenfeld\documents\github\19-20-T3-Web-Design-Weisenfeld\johanna521\HELLO.HTML c:\users\jweisenfeld\documents\github\19-20-T3-Web-Design-Weisenfeld\phs-cecilia124\HELLO.HTML</v>
       </c>
-      <c r="E4" t="str">
+      <c r="E5" t="str">
         <f t="shared" si="3"/>
         <v>&lt;a url="https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/phs-cecilia124/hello.html"&gt;phs-cecilia124/hello.html&lt;/a&gt;&lt;br /&gt;</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
+      <c r="F5" t="str">
+        <f t="shared" si="4"/>
+        <v>https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/phs-cecilia124/hello.html</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="5"/>
+        <v>https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/phs-cecilia124/HELLO.HTML</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>mkdir phs-christian083</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C6" t="str">
         <f t="shared" si="1"/>
         <v>phs-christian083</v>
       </c>
-      <c r="D5" t="str">
+      <c r="D6" t="str">
         <f t="shared" si="2"/>
         <v>copy c:\users\jweisenfeld\documents\github\19-20-T3-Web-Design-Weisenfeld\johanna521\HELLO.HTML c:\users\jweisenfeld\documents\github\19-20-T3-Web-Design-Weisenfeld\phs-christian083\HELLO.HTML</v>
       </c>
-      <c r="E5" t="str">
+      <c r="E6" t="str">
         <f t="shared" si="3"/>
         <v>&lt;a url="https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/phs-christian083/hello.html"&gt;phs-christian083/hello.html&lt;/a&gt;&lt;br /&gt;</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
-        <f t="shared" si="0"/>
-        <v>mkdir phs-ciera220</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="1"/>
-        <v>phs-ciera220</v>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" si="2"/>
-        <v>copy c:\users\jweisenfeld\documents\github\19-20-T3-Web-Design-Weisenfeld\johanna521\HELLO.HTML c:\users\jweisenfeld\documents\github\19-20-T3-Web-Design-Weisenfeld\phs-ciera220\HELLO.HTML</v>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a url="https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/phs-ciera220/hello.html"&gt;phs-ciera220/hello.html&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="str">
+        <f t="shared" si="4"/>
+        <v>https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/phs-christian083/hello.html</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="5"/>
+        <v>https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/phs-christian083/HELLO.HTML</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>mkdir phs-eli989</v>
@@ -1235,8 +1309,16 @@
         <f t="shared" si="3"/>
         <v>&lt;a url="https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/phs-eli989/hello.html"&gt;phs-eli989/hello.html&lt;/a&gt;&lt;br /&gt;</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" t="str">
+        <f t="shared" si="4"/>
+        <v>https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/phs-eli989/hello.html</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="5"/>
+        <v>https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/phs-eli989/HELLO.HTML</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>mkdir phs-esteban967</v>
@@ -1256,8 +1338,16 @@
         <f t="shared" si="3"/>
         <v>&lt;a url="https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/phs-esteban967/hello.html"&gt;phs-esteban967/hello.html&lt;/a&gt;&lt;br /&gt;</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="str">
+        <f t="shared" si="4"/>
+        <v>https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/phs-esteban967/hello.html</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="5"/>
+        <v>https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/phs-esteban967/HELLO.HTML</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>mkdir phs-kaylee671</v>
@@ -1277,8 +1367,16 @@
         <f t="shared" si="3"/>
         <v>&lt;a url="https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/phs-kaylee671/hello.html"&gt;phs-kaylee671/hello.html&lt;/a&gt;&lt;br /&gt;</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" t="str">
+        <f t="shared" si="4"/>
+        <v>https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/phs-kaylee671/hello.html</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="5"/>
+        <v>https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/phs-kaylee671/HELLO.HTML</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>mkdir phs-lesly608</v>
@@ -1298,8 +1396,16 @@
         <f t="shared" si="3"/>
         <v>&lt;a url="https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/phs-lesly608/hello.html"&gt;phs-lesly608/hello.html&lt;/a&gt;&lt;br /&gt;</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" t="str">
+        <f t="shared" si="4"/>
+        <v>https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/phs-lesly608/hello.html</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="5"/>
+        <v>https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/phs-lesly608/HELLO.HTML</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>mkdir phs-luis107</v>
@@ -1319,132 +1425,463 @@
         <f t="shared" si="3"/>
         <v>&lt;a url="https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/phs-luis107/hello.html"&gt;phs-luis107/hello.html&lt;/a&gt;&lt;br /&gt;</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" t="str">
+        <f t="shared" si="4"/>
+        <v>https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/phs-luis107/hello.html</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="5"/>
+        <v>https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/phs-luis107/HELLO.HTML</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir phs-marcos073</v>
+        <v>mkdir phs-miguel340</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="1"/>
-        <v>phs-marcos073</v>
+        <v>phs-miguel340</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="2"/>
-        <v>copy c:\users\jweisenfeld\documents\github\19-20-T3-Web-Design-Weisenfeld\johanna521\HELLO.HTML c:\users\jweisenfeld\documents\github\19-20-T3-Web-Design-Weisenfeld\phs-marcos073\HELLO.HTML</v>
+        <v>copy c:\users\jweisenfeld\documents\github\19-20-T3-Web-Design-Weisenfeld\johanna521\HELLO.HTML c:\users\jweisenfeld\documents\github\19-20-T3-Web-Design-Weisenfeld\phs-miguel340\HELLO.HTML</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;a url="https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/phs-marcos073/hello.html"&gt;phs-marcos073/hello.html&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>&lt;a url="https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/phs-miguel340/hello.html"&gt;phs-miguel340/hello.html&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="4"/>
+        <v>https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/phs-miguel340/hello.html</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="5"/>
+        <v>https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/phs-miguel340/HELLO.HTML</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir phs-miguel340</v>
+        <v>mkdir phs-mireyah001</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="1"/>
-        <v>phs-miguel340</v>
+        <v>phs-mireyah001</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="2"/>
-        <v>copy c:\users\jweisenfeld\documents\github\19-20-T3-Web-Design-Weisenfeld\johanna521\HELLO.HTML c:\users\jweisenfeld\documents\github\19-20-T3-Web-Design-Weisenfeld\phs-miguel340\HELLO.HTML</v>
+        <v>copy c:\users\jweisenfeld\documents\github\19-20-T3-Web-Design-Weisenfeld\johanna521\HELLO.HTML c:\users\jweisenfeld\documents\github\19-20-T3-Web-Design-Weisenfeld\phs-mireyah001\HELLO.HTML</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;a url="https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/phs-miguel340/hello.html"&gt;phs-miguel340/hello.html&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>&lt;a url="https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/phs-mireyah001/hello.html"&gt;phs-mireyah001/hello.html&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="4"/>
+        <v>https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/phs-mireyah001/hello.html</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="5"/>
+        <v>https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/phs-mireyah001/HELLO.HTML</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir phs-mireyah001</v>
+        <v>mkdir phs-ramses556</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="1"/>
-        <v>phs-mireyah001</v>
+        <v>phs-ramses556</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="2"/>
-        <v>copy c:\users\jweisenfeld\documents\github\19-20-T3-Web-Design-Weisenfeld\johanna521\HELLO.HTML c:\users\jweisenfeld\documents\github\19-20-T3-Web-Design-Weisenfeld\phs-mireyah001\HELLO.HTML</v>
+        <v>copy c:\users\jweisenfeld\documents\github\19-20-T3-Web-Design-Weisenfeld\johanna521\HELLO.HTML c:\users\jweisenfeld\documents\github\19-20-T3-Web-Design-Weisenfeld\phs-ramses556\HELLO.HTML</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;a url="https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/phs-mireyah001/hello.html"&gt;phs-mireyah001/hello.html&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>&lt;a url="https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/phs-ramses556/hello.html"&gt;phs-ramses556/hello.html&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="4"/>
+        <v>https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/phs-ramses556/hello.html</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="5"/>
+        <v>https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/phs-ramses556/HELLO.HTML</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir phs-ramses556</v>
+        <v>mkdir phs-william004</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="1"/>
-        <v>phs-ramses556</v>
+        <v>phs-william004</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="2"/>
-        <v>copy c:\users\jweisenfeld\documents\github\19-20-T3-Web-Design-Weisenfeld\johanna521\HELLO.HTML c:\users\jweisenfeld\documents\github\19-20-T3-Web-Design-Weisenfeld\phs-ramses556\HELLO.HTML</v>
+        <v>copy c:\users\jweisenfeld\documents\github\19-20-T3-Web-Design-Weisenfeld\johanna521\HELLO.HTML c:\users\jweisenfeld\documents\github\19-20-T3-Web-Design-Weisenfeld\phs-william004\HELLO.HTML</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;a url="https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/phs-ramses556/hello.html"&gt;phs-ramses556/hello.html&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>&lt;a url="https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/phs-william004/hello.html"&gt;phs-william004/hello.html&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="4"/>
+        <v>https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/phs-william004/hello.html</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="5"/>
+        <v>https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/phs-william004/HELLO.HTML</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir phs-william004</v>
+        <v>mkdir phs-william891</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="1"/>
-        <v>phs-william004</v>
+        <v>phs-william891</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="2"/>
-        <v>copy c:\users\jweisenfeld\documents\github\19-20-T3-Web-Design-Weisenfeld\johanna521\HELLO.HTML c:\users\jweisenfeld\documents\github\19-20-T3-Web-Design-Weisenfeld\phs-william004\HELLO.HTML</v>
+        <v>copy c:\users\jweisenfeld\documents\github\19-20-T3-Web-Design-Weisenfeld\johanna521\HELLO.HTML c:\users\jweisenfeld\documents\github\19-20-T3-Web-Design-Weisenfeld\phs-william891\HELLO.HTML</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;a url="https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/phs-william004/hello.html"&gt;phs-william004/hello.html&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>&lt;a url="https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/phs-william891/hello.html"&gt;phs-william891/hello.html&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="4"/>
+        <v>https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/phs-william891/hello.html</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="5"/>
+        <v>https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/phs-william891/HELLO.HTML</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir phs-william891</v>
+        <v>mkdir jweisenfeldtest</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" si="1"/>
-        <v>phs-william891</v>
+        <f>_xlfn.CONCAT("",B17)</f>
+        <v>jweisenfeldtest</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="2"/>
-        <v>copy c:\users\jweisenfeld\documents\github\19-20-T3-Web-Design-Weisenfeld\johanna521\HELLO.HTML c:\users\jweisenfeld\documents\github\19-20-T3-Web-Design-Weisenfeld\phs-william891\HELLO.HTML</v>
+        <v>copy c:\users\jweisenfeld\documents\github\19-20-T3-Web-Design-Weisenfeld\johanna521\HELLO.HTML c:\users\jweisenfeld\documents\github\19-20-T3-Web-Design-Weisenfeld\jweisenfeldtest\HELLO.HTML</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;a url="https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/phs-william891/hello.html"&gt;phs-william891/hello.html&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
+        <v>&lt;a url="https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/jweisenfeldtest/hello.html"&gt;jweisenfeldtest/hello.html&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="4"/>
+        <v>https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/jweisenfeldtest/hello.html</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="5"/>
+        <v>https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/jweisenfeldtest/HELLO.HTML</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f t="shared" ref="A18" si="6">_xlfn.CONCAT("mkdir ",C18)</f>
+        <v>mkdir jweisenfeld</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" t="str">
+        <f>_xlfn.CONCAT("",B18)</f>
+        <v>jweisenfeld</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" ref="D18" si="7">_xlfn.CONCAT("copy c:\users\jweisenfeld\documents\github\19-20-T3-Web-Design-Weisenfeld\johanna521\HELLO.HTML c:\users\jweisenfeld\documents\github\19-20-T3-Web-Design-Weisenfeld\",C18,"\HELLO.HTML")</f>
+        <v>copy c:\users\jweisenfeld\documents\github\19-20-T3-Web-Design-Weisenfeld\johanna521\HELLO.HTML c:\users\jweisenfeld\documents\github\19-20-T3-Web-Design-Weisenfeld\jweisenfeld\HELLO.HTML</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;a url="https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/jweisenfeld/hello.html"&gt;jweisenfeld/hello.html&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="4"/>
+        <v>https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/jweisenfeld/hello.html</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="5"/>
+        <v>https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/jweisenfeld/HELLO.HTML</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f t="shared" ref="A19" si="8">_xlfn.CONCAT("mkdir ",C19)</f>
+        <v>mkdir johanna521</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" t="str">
+        <f>_xlfn.CONCAT("",B19)</f>
+        <v>johanna521</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" ref="D19" si="9">_xlfn.CONCAT("copy c:\users\jweisenfeld\documents\github\19-20-T3-Web-Design-Weisenfeld\johanna521\HELLO.HTML c:\users\jweisenfeld\documents\github\19-20-T3-Web-Design-Weisenfeld\",C19,"\HELLO.HTML")</f>
+        <v>copy c:\users\jweisenfeld\documents\github\19-20-T3-Web-Design-Weisenfeld\johanna521\HELLO.HTML c:\users\jweisenfeld\documents\github\19-20-T3-Web-Design-Weisenfeld\johanna521\HELLO.HTML</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;a url="https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/johanna521/hello.html"&gt;johanna521/hello.html&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="4"/>
+        <v>https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/johanna521/hello.html</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="5"/>
+        <v>https://jweisenfeldtest.github.io/19-20-T3-Web-Design-Weisenfeld/johanna521/HELLO.HTML</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F224A14-1968-465A-AB32-A7614AC1A389}">
+  <dimension ref="A1:C26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="111.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="str">
+        <f>_xlfn.CONCAT("&lt;a href=""",B2,"/",$A$1,""" target=""_blank""&gt;",B2,"-",$A$1,"&lt;/a&gt;&lt;br&gt;")</f>
+        <v>&lt;a href="phs-adelaida733/project01.html" target="_blank"&gt;phs-adelaida733-project01.html&lt;/a&gt;&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C20" si="0">_xlfn.CONCAT("&lt;a href=""",B3,"/",$A$1,""" target=""_blank""&gt;",B3,"-",$A$1,"&lt;/a&gt;&lt;br&gt;")</f>
+        <v>&lt;a href="phs-alexis462/project01.html" target="_blank"&gt;phs-alexis462-project01.html&lt;/a&gt;&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href="phs-angel490/project01.html" target="_blank"&gt;phs-angel490-project01.html&lt;/a&gt;&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href="phs-anthony019/project01.html" target="_blank"&gt;phs-anthony019-project01.html&lt;/a&gt;&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href="phs-cecilia124/project01.html" target="_blank"&gt;phs-cecilia124-project01.html&lt;/a&gt;&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href="phs-christian083/project01.html" target="_blank"&gt;phs-christian083-project01.html&lt;/a&gt;&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href="phs-eli989/project01.html" target="_blank"&gt;phs-eli989-project01.html&lt;/a&gt;&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href="phs-esteban967/project01.html" target="_blank"&gt;phs-esteban967-project01.html&lt;/a&gt;&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href="phs-kaylee671/project01.html" target="_blank"&gt;phs-kaylee671-project01.html&lt;/a&gt;&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href="phs-lesly608/project01.html" target="_blank"&gt;phs-lesly608-project01.html&lt;/a&gt;&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href="phs-luis107/project01.html" target="_blank"&gt;phs-luis107-project01.html&lt;/a&gt;&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href="phs-miguel340/project01.html" target="_blank"&gt;phs-miguel340-project01.html&lt;/a&gt;&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href="phs-mireyah001/project01.html" target="_blank"&gt;phs-mireyah001-project01.html&lt;/a&gt;&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href="phs-ramses556/project01.html" target="_blank"&gt;phs-ramses556-project01.html&lt;/a&gt;&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href="phs-william004/project01.html" target="_blank"&gt;phs-william004-project01.html&lt;/a&gt;&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href="phs-william891/project01.html" target="_blank"&gt;phs-william891-project01.html&lt;/a&gt;&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href="jweisenfeldtest/project01.html" target="_blank"&gt;jweisenfeldtest-project01.html&lt;/a&gt;&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href="jweisenfeld/project01.html" target="_blank"&gt;jweisenfeld-project01.html&lt;/a&gt;&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href="johanna521/project01.html" target="_blank"&gt;johanna521-project01.html&lt;/a&gt;&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
